--- a/data/long_razon/P30-Edad-long_razon.xlsx
+++ b/data/long_razon/P30-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-42,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>74,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-32,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 139,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-68,3; 2,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 209,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-50,0; 19,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 121,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,6; -4,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>102,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-31,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,73; 113,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,55; 124,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,57; 232,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,69; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 128,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 38,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,14%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 94,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-29,48; 65,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 106,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,22; 22,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 79,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 23,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,66%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 29,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,69; 63,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,22; 137,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 54,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 52,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 42,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-13,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 88,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 75,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-33,49; 87,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 30,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 63,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 36,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>63,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>63,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>63,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 212,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,65; 60,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,56; 184,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-48,97; 51,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,6; 141,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 28,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>59,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 46,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 20,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,44; 92,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 4,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,9; 58,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 6,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P30-Edad-long_razon.xlsx
+++ b/data/long_razon/P30-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.0298824274485102</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.3722075797661439</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4115408790853846</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.5179254864521623</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.842682854510819</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.199457931819333</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.5139552277936553</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2959746088174191</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.32941773753762</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.2859119163938624</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.4685684523727979</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.05515164205467383</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.4345834257943127</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.6577516909857357</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3738024070140172</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2998938765433889</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.06220021214495084</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.4779230800597</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.09720009926646643</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.6440989923452691</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1261116303638299</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.4897114427706467</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1100761783460261</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3821357462635253</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>0.7357778786764496</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.1782909425600022</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.409249220733485</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.326361325795783</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>2.258167020845323</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2059436937835679</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>1.571888737119918</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.2964960390181796</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.914671508659237</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.02693272441430077</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.308915721226314</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.7147501966631606</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.07819292867854884</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3110378216065695</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.009551564530090579</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.02851270295442</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.03332317321965</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.2769199222203986</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.07743404124258051</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.2252792617264826</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.4539436677618241</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.007967702021867029</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.03447624156188434</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.2508716938237336</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.4443775510298272</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1875362895820359</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.599626557931868</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1596227426683348</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.3163852579756589</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5228987682390592</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3349427751676</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.5006519616074423</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.02333414532968199</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.2672583876608235</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.4082567640119262</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.246334358274346</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>1.162695235814357</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.096470631024283</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.8221187585188007</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.098929088901492</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>2.493048593796687</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1031161635832269</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.6669000448876399</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2885677587125231</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.177195972221701</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3932404021010621</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.54168101953244</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>1.180254394184442</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.2578344233543853</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.03617696375349668</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.1398318914120249</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1590480457758579</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.42216781593507</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.1034488753693781</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.05436489448615983</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.03725696931158909</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.3322397607925097</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>-0.03779248919308669</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.04225475434624734</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.06837729952995555</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.1600689855858911</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.319367455489967</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.269478280384876</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.2858396093871983</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.02811489554194067</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3577285213681435</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3163495042392368</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3993274294510676</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.01242480345230685</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.2715172487533512</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.1975949570430538</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2285551797110377</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.9701208229684284</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5744929817471286</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.7056710908027775</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8987331183916428</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.117051317024296</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.2634106468167098</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.3228983686054517</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6020839512801441</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.8020866269637</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.2312770566065646</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.416819974167753</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.5023624309829937</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>-0.1032495103301597</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1228226499402971</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1696148647140662</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.06027776133811379</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.657688806159677</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1220662065837181</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1154135525234574</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1529742928236366</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.1815202542205653</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.1224504667560559</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.02192316688606333</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1073457590506403</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.4012831727139997</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2986718022831993</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2470006101145343</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5236450407559191</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.1201234345652163</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2104170306400158</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.3605878142572661</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4390810666767725</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.08970090051149233</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.121697034163952</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.2032709074546262</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.3885379356236928</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.2639853598623208</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.6403190035970862</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9996193709997213</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7284132574934639</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>1.521454633244995</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5408178596581632</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2168088198448773</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3702186592605153</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.5800804885164684</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4377261021938725</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.5223743988265932</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.3133781803737465</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.1428308271974054</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.223837724119624</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.1606054374521728</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-0.02883828780170646</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0.1769012744959439</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>-0.1344424323871726</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.09905042976113179</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.4152694725019163</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.1585389460069448</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.03407302618347041</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.1288511574421878</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-0.230342114672913</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.2958304005828562</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.1603533805494472</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5071472144457837</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4462388826834458</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.280251496993318</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.4432177456294776</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.4991445501303691</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.6905452064323847</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.1993485269823874</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.207615500834021</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.4284643907899037</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.4883818734461859</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.8491507436484754</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.8503561651382761</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.4614400430929224</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0.6048577122142808</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.8465951738568023</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.2869058706072617</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.4631884310067144</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>-0.06483001458287597</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.6356579361351978</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.3643016441439226</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.2268433789587849</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>0.08438911842347784</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>0.5587411960495109</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.1063685484648548</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-0.1185209791186767</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.1759223755945889</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.5080065078308377</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>-0.027894414444902</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>0.06297710603625954</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>-0.009335846229053358</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>0.5309701805758646</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>-0.06529300398011152</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>-0.01063972929509611</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.0811626560215961</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.1249379746482117</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.4633000873133856</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.5979253372319719</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.4224450576048336</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.1406605901705885</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.4263984799870758</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.4216975084991385</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.6248092430016789</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.02136590908811643</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.3696341534311725</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>-0.3696487199406118</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.3638398768085062</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>1.953382055257221</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.6067347351074203</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>0.8463313883134473</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>1.117247082197292</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1.751728020609364</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>0.6107751441447138</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.8738468373893882</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>1.409439683902894</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>1.273652494056447</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>0.3826354540585812</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0.5353195162596019</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.8319754543178395</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.125170281249764</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.02242935221040571</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.06990545825433973</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.2597862077748461</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.59173682106458</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>-0.1050414104834484</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.041721866790376</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>-0.1945776823735857</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.3248703530960911</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>-0.04315588533598996</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.05582012524250531</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.01887556507244327</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>-0.1002225058024402</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.1537414980407197</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2030926871412731</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-0.05617948010571601</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.3192801462093022</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.2431205095441608</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.126302717382532</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.3528786539610202</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.1578131499813945</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>-0.1496162524154611</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>-0.113620816955757</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.1474535455272462</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>0.4040881156987541</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.2469812786286577</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.3769895883584615</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>0.684920326242255</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.9426544209951404</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.04870749585479652</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.2607420583929961</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.01121114482692883</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.5347591506480114</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.0816540716863712</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>0.2515856022005424</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.2294342017681754</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
